--- a/Lab3.xlsx
+++ b/Lab3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamep\Documents\Cos\Spring 2020\GeneralPhysics2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamep\Documents\COS\Spring 2020\General Physics 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E5920F-2B85-4F7C-81DA-2D68A520D21A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E492D953-32D6-40B7-AB01-26A928E78E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B67EEDE3-8002-4651-95B3-1001DE2B519B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B67EEDE3-8002-4651-95B3-1001DE2B519B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,6 +145,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Final</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Period vs Angle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -508,6 +538,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Final Period vs Angle</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1973,15 +2033,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6006</xdr:colOff>
+      <xdr:colOff>6005</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>75052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>305833</xdr:colOff>
+      <xdr:colOff>447559</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>56002</xdr:rowOff>
+      <xdr:rowOff>103283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2009,15 +2069,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219573</xdr:colOff>
+      <xdr:colOff>13008</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>169995</xdr:rowOff>
+      <xdr:rowOff>43761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>185910</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>275423</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>158979</xdr:rowOff>
+      <xdr:rowOff>32745</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2344,26 +2404,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25090194-829A-4103-8C2E-F25B8FAA47B4}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="83" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2399,7 +2459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.6539999999999999</v>
       </c>
@@ -2438,7 +2498,7 @@
         <v>0.97811550151975679</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.6539999999999999</v>
       </c>
@@ -2474,7 +2534,7 @@
         <v>0.98115501519756843</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.6539999999999999</v>
       </c>
@@ -2510,7 +2570,7 @@
         <v>1.017629179331307</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.6539999999999999</v>
       </c>
@@ -2546,7 +2606,7 @@
         <v>0.9975683890577508</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.6539999999999999</v>
       </c>
@@ -2582,7 +2642,7 @@
         <v>0.98176291793313053</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.6539999999999999</v>
       </c>
@@ -2618,7 +2678,7 @@
         <v>1.0334346504559271</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.6539999999999999</v>
       </c>
@@ -2654,7 +2714,7 @@
         <v>1.0407294832826748</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.6539999999999999</v>
       </c>
@@ -2690,7 +2750,7 @@
         <v>1.0340425531914894</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.6539999999999999</v>
       </c>
@@ -2726,7 +2786,7 @@
         <v>1.021276595744681</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.6539999999999999</v>
       </c>
@@ -2762,7 +2822,7 @@
         <v>1.0741641337386019</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.6539999999999999</v>
       </c>
@@ -2798,7 +2858,7 @@
         <v>1.0291793313069908</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.6539999999999999</v>
       </c>
